--- a/TUFE_Konfigurasyon.xlsx
+++ b/TUFE_Konfigurasyon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\vb41981\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF381506-755F-4B94-94A3-1DCE064EFDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCCFD2C0-7B9E-4673-96EB-6198EFD51B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,20 @@
     <sheet name="Madde_Sepeti" sheetId="1" r:id="rId1"/>
     <sheet name="URL_Listesi" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Madde_Sepeti!$A$1:$H$408</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -4186,13 +4198,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:I408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F394" sqref="F394"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H280" sqref="H280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4232,7 +4244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4252,7 +4264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4272,7 +4284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -4292,7 +4304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4312,7 +4324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4332,7 +4344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -4352,7 +4364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -4372,7 +4384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -4392,7 +4404,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -4412,7 +4424,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -4432,7 +4444,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -4472,7 +4484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -4492,7 +4504,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -4512,7 +4524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4532,7 +4544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -4552,7 +4564,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -4572,7 +4584,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -4592,7 +4604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -4632,7 +4644,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -4652,7 +4664,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -4672,7 +4684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -4692,7 +4704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>79</v>
       </c>
@@ -4712,7 +4724,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -4732,7 +4744,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -4752,7 +4764,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -4772,7 +4784,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -4792,7 +4804,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -4832,7 +4844,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>100</v>
       </c>
@@ -4852,7 +4864,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -4872,7 +4884,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>106</v>
       </c>
@@ -4892,7 +4904,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -4912,7 +4924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -4932,7 +4944,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -4952,7 +4964,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -4992,7 +5004,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -5012,7 +5024,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -5032,7 +5044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -5052,7 +5064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -5072,7 +5084,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -5092,7 +5104,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -5112,7 +5124,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>142</v>
       </c>
@@ -5132,7 +5144,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>145</v>
       </c>
@@ -5152,7 +5164,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>148</v>
       </c>
@@ -5172,7 +5184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>151</v>
       </c>
@@ -5192,7 +5204,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>154</v>
       </c>
@@ -5212,7 +5224,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>157</v>
       </c>
@@ -5232,7 +5244,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>160</v>
       </c>
@@ -5252,7 +5264,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -5272,7 +5284,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>166</v>
       </c>
@@ -5292,7 +5304,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>169</v>
       </c>
@@ -5312,7 +5324,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>172</v>
       </c>
@@ -5332,7 +5344,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -5352,7 +5364,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>178</v>
       </c>
@@ -5372,7 +5384,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -5392,7 +5404,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>184</v>
       </c>
@@ -5412,7 +5424,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>187</v>
       </c>
@@ -5432,7 +5444,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>190</v>
       </c>
@@ -5452,7 +5464,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -5472,7 +5484,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>196</v>
       </c>
@@ -5492,7 +5504,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>199</v>
       </c>
@@ -5512,7 +5524,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>202</v>
       </c>
@@ -5532,7 +5544,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>205</v>
       </c>
@@ -5552,7 +5564,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>208</v>
       </c>
@@ -5572,7 +5584,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>211</v>
       </c>
@@ -5592,7 +5604,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>214</v>
       </c>
@@ -5612,7 +5624,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>217</v>
       </c>
@@ -5632,7 +5644,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>220</v>
       </c>
@@ -5652,7 +5664,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>223</v>
       </c>
@@ -5672,7 +5684,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>226</v>
       </c>
@@ -5692,7 +5704,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>229</v>
       </c>
@@ -5712,7 +5724,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>232</v>
       </c>
@@ -5732,7 +5744,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>235</v>
       </c>
@@ -5752,7 +5764,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>238</v>
       </c>
@@ -5772,7 +5784,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>241</v>
       </c>
@@ -5792,7 +5804,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>244</v>
       </c>
@@ -5812,7 +5824,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>247</v>
       </c>
@@ -5832,7 +5844,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>250</v>
       </c>
@@ -5852,7 +5864,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>253</v>
       </c>
@@ -5872,7 +5884,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>256</v>
       </c>
@@ -5892,7 +5904,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>259</v>
       </c>
@@ -5912,7 +5924,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>262</v>
       </c>
@@ -5932,7 +5944,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>265</v>
       </c>
@@ -5952,7 +5964,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>268</v>
       </c>
@@ -5972,7 +5984,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>271</v>
       </c>
@@ -5992,7 +6004,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>274</v>
       </c>
@@ -6012,7 +6024,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>277</v>
       </c>
@@ -6032,7 +6044,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>280</v>
       </c>
@@ -6052,7 +6064,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>283</v>
       </c>
@@ -6072,7 +6084,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>286</v>
       </c>
@@ -6092,7 +6104,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>289</v>
       </c>
@@ -6112,7 +6124,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>292</v>
       </c>
@@ -6132,7 +6144,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>295</v>
       </c>
@@ -6152,7 +6164,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>298</v>
       </c>
@@ -6172,7 +6184,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>301</v>
       </c>
@@ -6192,7 +6204,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>304</v>
       </c>
@@ -6212,7 +6224,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>307</v>
       </c>
@@ -6232,7 +6244,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>310</v>
       </c>
@@ -6252,7 +6264,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>313</v>
       </c>
@@ -6272,7 +6284,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>316</v>
       </c>
@@ -6292,7 +6304,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>319</v>
       </c>
@@ -6312,7 +6324,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>322</v>
       </c>
@@ -6332,7 +6344,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>325</v>
       </c>
@@ -6352,7 +6364,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>328</v>
       </c>
@@ -6372,7 +6384,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>331</v>
       </c>
@@ -6392,7 +6404,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>334</v>
       </c>
@@ -6412,7 +6424,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>337</v>
       </c>
@@ -6432,7 +6444,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>340</v>
       </c>
@@ -6452,7 +6464,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>343</v>
       </c>
@@ -6472,7 +6484,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>346</v>
       </c>
@@ -6492,7 +6504,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>349</v>
       </c>
@@ -6512,7 +6524,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>352</v>
       </c>
@@ -6532,7 +6544,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>355</v>
       </c>
@@ -6552,7 +6564,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>358</v>
       </c>
@@ -6572,7 +6584,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>361</v>
       </c>
@@ -6592,7 +6604,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>364</v>
       </c>
@@ -6612,7 +6624,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>367</v>
       </c>
@@ -6632,7 +6644,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>370</v>
       </c>
@@ -6652,7 +6664,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>373</v>
       </c>
@@ -6672,7 +6684,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>376</v>
       </c>
@@ -6692,7 +6704,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>379</v>
       </c>
@@ -6712,7 +6724,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>382</v>
       </c>
@@ -6732,7 +6744,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>385</v>
       </c>
@@ -6752,7 +6764,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>388</v>
       </c>
@@ -6910,7 +6922,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>406</v>
       </c>
@@ -6930,7 +6942,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>409</v>
       </c>
@@ -6950,7 +6962,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>412</v>
       </c>
@@ -6970,7 +6982,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>415</v>
       </c>
@@ -6990,7 +7002,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>418</v>
       </c>
@@ -7010,7 +7022,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>421</v>
       </c>
@@ -7030,7 +7042,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>424</v>
       </c>
@@ -7050,7 +7062,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>427</v>
       </c>
@@ -7070,7 +7082,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>430</v>
       </c>
@@ -7090,7 +7102,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>433</v>
       </c>
@@ -7110,7 +7122,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>436</v>
       </c>
@@ -7130,7 +7142,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>439</v>
       </c>
@@ -7150,7 +7162,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>442</v>
       </c>
@@ -7170,7 +7182,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>445</v>
       </c>
@@ -7190,7 +7202,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -7210,7 +7222,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>451</v>
       </c>
@@ -7230,7 +7242,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>454</v>
       </c>
@@ -7250,7 +7262,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>457</v>
       </c>
@@ -7270,7 +7282,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>460</v>
       </c>
@@ -7290,7 +7302,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>463</v>
       </c>
@@ -7310,7 +7322,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>466</v>
       </c>
@@ -7330,7 +7342,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>469</v>
       </c>
@@ -7350,7 +7362,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>472</v>
       </c>
@@ -7370,7 +7382,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>475</v>
       </c>
@@ -7390,7 +7402,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>478</v>
       </c>
@@ -7410,7 +7422,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>481</v>
       </c>
@@ -7430,7 +7442,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>484</v>
       </c>
@@ -7450,7 +7462,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>487</v>
       </c>
@@ -7470,7 +7482,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>490</v>
       </c>
@@ -7490,7 +7502,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>493</v>
       </c>
@@ -7510,7 +7522,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>495</v>
       </c>
@@ -7530,7 +7542,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>498</v>
       </c>
@@ -7550,7 +7562,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>501</v>
       </c>
@@ -7570,7 +7582,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>504</v>
       </c>
@@ -7590,7 +7602,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>507</v>
       </c>
@@ -7610,7 +7622,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>510</v>
       </c>
@@ -7630,7 +7642,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>513</v>
       </c>
@@ -7650,7 +7662,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>516</v>
       </c>
@@ -7670,7 +7682,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>519</v>
       </c>
@@ -7690,7 +7702,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>522</v>
       </c>
@@ -7710,7 +7722,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>525</v>
       </c>
@@ -7730,7 +7742,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>528</v>
       </c>
@@ -7750,7 +7762,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>531</v>
       </c>
@@ -7770,7 +7782,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>534</v>
       </c>
@@ -7790,7 +7802,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>537</v>
       </c>
@@ -7810,7 +7822,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>540</v>
       </c>
@@ -7830,7 +7842,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>543</v>
       </c>
@@ -7896,7 +7908,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>551</v>
       </c>
@@ -7916,7 +7928,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>554</v>
       </c>
@@ -7936,7 +7948,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>557</v>
       </c>
@@ -7956,7 +7968,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>560</v>
       </c>
@@ -7976,7 +7988,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>563</v>
       </c>
@@ -7996,7 +8008,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>566</v>
       </c>
@@ -8016,7 +8028,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>569</v>
       </c>
@@ -8036,7 +8048,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>572</v>
       </c>
@@ -8056,7 +8068,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>575</v>
       </c>
@@ -8145,7 +8157,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>585</v>
       </c>
@@ -8165,7 +8177,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>588</v>
       </c>
@@ -8185,7 +8197,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>591</v>
       </c>
@@ -8205,7 +8217,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>594</v>
       </c>
@@ -8318,7 +8330,7 @@
         <v>0.91192538000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>608</v>
       </c>
@@ -8338,7 +8350,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>611</v>
       </c>
@@ -8358,7 +8370,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>614</v>
       </c>
@@ -8378,7 +8390,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>617</v>
       </c>
@@ -8398,7 +8410,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>620</v>
       </c>
@@ -8418,7 +8430,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>623</v>
       </c>
@@ -8438,7 +8450,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>626</v>
       </c>
@@ -8458,7 +8470,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>629</v>
       </c>
@@ -8478,7 +8490,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>632</v>
       </c>
@@ -8498,7 +8510,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>635</v>
       </c>
@@ -8518,7 +8530,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>638</v>
       </c>
@@ -8538,7 +8550,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>641</v>
       </c>
@@ -8558,7 +8570,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>644</v>
       </c>
@@ -8578,7 +8590,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>647</v>
       </c>
@@ -8598,7 +8610,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>650</v>
       </c>
@@ -8618,7 +8630,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>653</v>
       </c>
@@ -8638,7 +8650,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>656</v>
       </c>
@@ -8658,7 +8670,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>659</v>
       </c>
@@ -8678,7 +8690,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>662</v>
       </c>
@@ -8698,7 +8710,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>665</v>
       </c>
@@ -8718,7 +8730,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>668</v>
       </c>
@@ -8738,7 +8750,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>671</v>
       </c>
@@ -8758,7 +8770,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>674</v>
       </c>
@@ -8778,7 +8790,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>677</v>
       </c>
@@ -8798,7 +8810,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>680</v>
       </c>
@@ -8818,7 +8830,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>683</v>
       </c>
@@ -8838,7 +8850,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>686</v>
       </c>
@@ -8858,7 +8870,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>689</v>
       </c>
@@ -8878,7 +8890,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>692</v>
       </c>
@@ -8898,7 +8910,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>695</v>
       </c>
@@ -8918,7 +8930,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>698</v>
       </c>
@@ -8938,7 +8950,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>701</v>
       </c>
@@ -8958,7 +8970,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>704</v>
       </c>
@@ -8978,7 +8990,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>707</v>
       </c>
@@ -8998,7 +9010,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>710</v>
       </c>
@@ -9018,7 +9030,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>713</v>
       </c>
@@ -9038,7 +9050,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>716</v>
       </c>
@@ -9058,7 +9070,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>719</v>
       </c>
@@ -9078,7 +9090,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>722</v>
       </c>
@@ -9098,7 +9110,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>725</v>
       </c>
@@ -9118,7 +9130,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>728</v>
       </c>
@@ -9138,7 +9150,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>731</v>
       </c>
@@ -9158,7 +9170,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>734</v>
       </c>
@@ -9178,7 +9190,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>737</v>
       </c>
@@ -9198,7 +9210,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>740</v>
       </c>
@@ -9218,7 +9230,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>743</v>
       </c>
@@ -9238,7 +9250,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>746</v>
       </c>
@@ -9258,7 +9270,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>749</v>
       </c>
@@ -9278,7 +9290,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>752</v>
       </c>
@@ -9298,7 +9310,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>755</v>
       </c>
@@ -9318,7 +9330,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>758</v>
       </c>
@@ -9338,7 +9350,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>761</v>
       </c>
@@ -9358,7 +9370,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>764</v>
       </c>
@@ -9378,7 +9390,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>767</v>
       </c>
@@ -9398,7 +9410,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>770</v>
       </c>
@@ -9418,7 +9430,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>773</v>
       </c>
@@ -9438,7 +9450,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>776</v>
       </c>
@@ -9458,7 +9470,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>779</v>
       </c>
@@ -9547,7 +9559,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>791</v>
       </c>
@@ -9567,7 +9579,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>794</v>
       </c>
@@ -9587,7 +9599,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>797</v>
       </c>
@@ -9607,7 +9619,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>800</v>
       </c>
@@ -9647,7 +9659,7 @@
         <v>805</v>
       </c>
       <c r="H269">
-        <v>1000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
@@ -9670,7 +9682,7 @@
         <v>805</v>
       </c>
       <c r="H270">
-        <v>1000</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -9693,7 +9705,7 @@
         <v>805</v>
       </c>
       <c r="H271">
-        <v>750</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -9716,7 +9728,7 @@
         <v>805</v>
       </c>
       <c r="H272">
-        <v>2500</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
@@ -9739,7 +9751,7 @@
         <v>805</v>
       </c>
       <c r="H273">
-        <v>750</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
@@ -9762,7 +9774,7 @@
         <v>805</v>
       </c>
       <c r="H274">
-        <v>1000</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
@@ -9785,7 +9797,7 @@
         <v>805</v>
       </c>
       <c r="H275">
-        <v>1000</v>
+        <v>9230</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
@@ -9808,7 +9820,7 @@
         <v>805</v>
       </c>
       <c r="H276">
-        <v>750</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
@@ -9831,7 +9843,7 @@
         <v>805</v>
       </c>
       <c r="H277">
-        <v>2000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
@@ -9854,7 +9866,7 @@
         <v>805</v>
       </c>
       <c r="H278">
-        <v>1500</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -9877,7 +9889,7 @@
         <v>805</v>
       </c>
       <c r="H279">
-        <v>7000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -9969,10 +9981,10 @@
         <v>837</v>
       </c>
       <c r="H283">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+        <v>695000</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>838</v>
       </c>
@@ -9992,7 +10004,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>841</v>
       </c>
@@ -10012,7 +10024,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>844</v>
       </c>
@@ -10101,7 +10113,7 @@
         <v>54.47</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>854</v>
       </c>
@@ -10440,7 +10452,7 @@
         <v>892</v>
       </c>
       <c r="H304">
-        <v>2.42</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -10604,7 +10616,7 @@
         <v>302.82</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>911</v>
       </c>
@@ -10624,7 +10636,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>914</v>
       </c>
@@ -10644,7 +10656,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>917</v>
       </c>
@@ -10756,7 +10768,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>931</v>
       </c>
@@ -10776,7 +10788,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>934</v>
       </c>
@@ -10796,7 +10808,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>937</v>
       </c>
@@ -10816,7 +10828,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>940</v>
       </c>
@@ -10836,7 +10848,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>943</v>
       </c>
@@ -10856,7 +10868,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>946</v>
       </c>
@@ -10876,7 +10888,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>949</v>
       </c>
@@ -10896,7 +10908,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>952</v>
       </c>
@@ -10916,7 +10928,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>955</v>
       </c>
@@ -10936,7 +10948,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>958</v>
       </c>
@@ -10956,7 +10968,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>961</v>
       </c>
@@ -11183,7 +11195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>990</v>
       </c>
@@ -11203,7 +11215,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>993</v>
       </c>
@@ -11223,7 +11235,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>996</v>
       </c>
@@ -11243,7 +11255,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>999</v>
       </c>
@@ -11263,7 +11275,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1002</v>
       </c>
@@ -11283,7 +11295,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1005</v>
       </c>
@@ -11303,7 +11315,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1008</v>
       </c>
@@ -11323,7 +11335,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1011</v>
       </c>
@@ -11343,7 +11355,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1014</v>
       </c>
@@ -11363,7 +11375,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1017</v>
       </c>
@@ -11449,7 +11461,7 @@
         <v>1027</v>
       </c>
       <c r="H351">
-        <v>38.045999999999999</v>
+        <v>38046</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
@@ -11472,7 +11484,7 @@
         <v>1030</v>
       </c>
       <c r="H352">
-        <v>271.459</v>
+        <v>271459</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
@@ -11495,7 +11507,7 @@
         <v>1033</v>
       </c>
       <c r="H353">
-        <v>44.709000000000003</v>
+        <v>44709</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
@@ -11613,7 +11625,7 @@
         <v>204000</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1047</v>
       </c>
@@ -11633,7 +11645,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1050</v>
       </c>
@@ -11653,7 +11665,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1052</v>
       </c>
@@ -11673,7 +11685,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1054</v>
       </c>
@@ -11693,7 +11705,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1056</v>
       </c>
@@ -11713,7 +11725,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1059</v>
       </c>
@@ -11733,7 +11745,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1062</v>
       </c>
@@ -11753,7 +11765,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1065</v>
       </c>
@@ -11773,7 +11785,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1068</v>
       </c>
@@ -11793,7 +11805,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1071</v>
       </c>
@@ -11813,7 +11825,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1073</v>
       </c>
@@ -11833,7 +11845,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1076</v>
       </c>
@@ -11853,7 +11865,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1078</v>
       </c>
@@ -11916,7 +11928,7 @@
         <v>1085</v>
       </c>
       <c r="H373">
-        <v>6.5</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
@@ -12011,7 +12023,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1098</v>
       </c>
@@ -12031,7 +12043,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1101</v>
       </c>
@@ -12051,7 +12063,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1104</v>
       </c>
@@ -12071,7 +12083,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1107</v>
       </c>
@@ -12091,7 +12103,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1110</v>
       </c>
@@ -12111,7 +12123,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1113</v>
       </c>
@@ -12131,7 +12143,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1116</v>
       </c>
@@ -12151,7 +12163,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1119</v>
       </c>
@@ -12171,7 +12183,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1122</v>
       </c>
@@ -12191,7 +12203,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1125</v>
       </c>
@@ -12211,7 +12223,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1128</v>
       </c>
@@ -12231,7 +12243,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1131</v>
       </c>
@@ -12251,7 +12263,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1134</v>
       </c>
@@ -12271,7 +12283,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1137</v>
       </c>
@@ -12291,7 +12303,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1140</v>
       </c>
@@ -12311,7 +12323,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1143</v>
       </c>
@@ -12331,7 +12343,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1146</v>
       </c>
@@ -12351,7 +12363,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1149</v>
       </c>
@@ -12371,7 +12383,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1152</v>
       </c>
@@ -12391,7 +12403,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1155</v>
       </c>
@@ -12411,7 +12423,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1158</v>
       </c>
@@ -12431,7 +12443,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1161</v>
       </c>
@@ -12494,7 +12506,7 @@
         <v>1169</v>
       </c>
       <c r="H401">
-        <v>1.6950000000000001</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -12517,7 +12529,7 @@
         <v>1172</v>
       </c>
       <c r="H402">
-        <v>20.687000000000001</v>
+        <v>20687</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -12540,7 +12552,7 @@
         <v>1175</v>
       </c>
       <c r="H403">
-        <v>45.478999999999999</v>
+        <v>45479</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
@@ -12659,6 +12671,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H408" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="7">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F202" r:id="rId1" xr:uid="{005C5ACF-038B-4E11-B9EB-587D424446D9}"/>
   </hyperlinks>
@@ -19656,7 +19675,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E00FAD00-7E72-4CED-843D-4D2EF7468A5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C56DD748-AB70-4F20-B5C2-1237E7C603F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/TUFE_Konfigurasyon.xlsx
+++ b/TUFE_Konfigurasyon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\vb41981\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C3B4EC-E044-4108-A959-36BE3AEA2311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B894923-7FB8-4B33-AE5B-C4A6098C010C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2758,26 +2758,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
   <dimension ref="A1:L589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="57.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2810,7 +2813,7 @@
       </c>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>111121</v>
       </c>
@@ -2830,7 +2833,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>111192</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>111211</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>111311</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>111392</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>111393</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>111394</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>111396</v>
       </c>
@@ -2970,7 +2973,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>111398</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>111399</v>
       </c>
@@ -3010,7 +3013,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111401</v>
       </c>
@@ -3030,7 +3033,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>111501</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>111502</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>112214</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>112230</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>112246</v>
       </c>
@@ -3136,7 +3139,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>112401</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>112511</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>112590</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>112593</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>113121</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>113151</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>113191</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>113315</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>114111</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>114201</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>114331</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>114501</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>114502</v>
       </c>
@@ -3408,7 +3411,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>114503</v>
       </c>
@@ -3428,7 +3431,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>114504</v>
       </c>
@@ -3448,7 +3451,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>114505</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>114601</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>114605</v>
       </c>
@@ -3508,7 +3511,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>114701</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>114703</v>
       </c>
@@ -3548,7 +3551,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>114811</v>
       </c>
@@ -3568,7 +3571,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>115112</v>
       </c>
@@ -3588,7 +3591,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>115131</v>
       </c>
@@ -3608,7 +3611,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>115211</v>
       </c>
@@ -3628,7 +3631,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>115301</v>
       </c>
@@ -3654,7 +3657,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>116121</v>
       </c>
@@ -3674,7 +3677,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>116221</v>
       </c>
@@ -3694,7 +3697,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>116231</v>
       </c>
@@ -3714,7 +3717,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>116241</v>
       </c>
@@ -3734,7 +3737,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>116311</v>
       </c>
@@ -3754,7 +3757,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>116321</v>
       </c>
@@ -3774,7 +3777,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>116351</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>116451</v>
       </c>
@@ -3814,7 +3817,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>116511</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>116521</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>116531</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>116541</v>
       </c>
@@ -3894,7 +3897,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>116591</v>
       </c>
@@ -3914,7 +3917,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>116711</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>116791</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>116793</v>
       </c>
@@ -3974,7 +3977,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>116811</v>
       </c>
@@ -3994,7 +3997,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>116843</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>116854</v>
       </c>
@@ -4034,7 +4037,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>116862</v>
       </c>
@@ -4054,7 +4057,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>116886</v>
       </c>
@@ -4074,7 +4077,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>116891</v>
       </c>
@@ -4094,7 +4097,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>116897</v>
       </c>
@@ -4114,7 +4117,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>116898</v>
       </c>
@@ -4134,7 +4137,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>117123</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>117131</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>117141</v>
       </c>
@@ -4194,7 +4197,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>117151</v>
       </c>
@@ -4214,7 +4217,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>117211</v>
       </c>
@@ -4234,7 +4237,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>117215</v>
       </c>
@@ -4254,7 +4257,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>117222</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>117234</v>
       </c>
@@ -4294,7 +4297,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>117241</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>117253</v>
       </c>
@@ -4334,7 +4337,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>117312</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>117410</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>117416</v>
       </c>
@@ -4394,7 +4397,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>117421</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>117431</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>117445</v>
       </c>
@@ -4454,7 +4457,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>117452</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>117476</v>
       </c>
@@ -4494,7 +4497,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>117511</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>117611</v>
       </c>
@@ -4534,7 +4537,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>117632</v>
       </c>
@@ -4554,7 +4557,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>117643</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>117923</v>
       </c>
@@ -4594,7 +4597,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>117992</v>
       </c>
@@ -4614,7 +4617,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>117995</v>
       </c>
@@ -4634,7 +4637,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>117998</v>
       </c>
@@ -4654,7 +4657,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>118121</v>
       </c>
@@ -4674,7 +4677,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>118122</v>
       </c>
@@ -4694,7 +4697,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>118313</v>
       </c>
@@ -4714,7 +4717,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>118391</v>
       </c>
@@ -4734,7 +4737,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>118397</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>118401</v>
       </c>
@@ -4780,7 +4783,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>118408</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>118512</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>118593</v>
       </c>
@@ -4840,7 +4843,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>118601</v>
       </c>
@@ -4860,7 +4863,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>118916</v>
       </c>
@@ -4880,7 +4883,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>118991</v>
       </c>
@@ -4900,7 +4903,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>118994</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>118995</v>
       </c>
@@ -4940,7 +4943,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>119145</v>
       </c>
@@ -4960,7 +4963,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>119161</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>119192</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>119195</v>
       </c>
@@ -5020,7 +5023,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>119212</v>
       </c>
@@ -5040,7 +5043,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>119311</v>
       </c>
@@ -5060,7 +5063,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>119393</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>119396</v>
       </c>
@@ -5100,7 +5103,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>119397</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>119401</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>119402</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>119902</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119904</v>
       </c>
@@ -5200,7 +5203,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>121001</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>122011</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122012</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123021</v>
       </c>
@@ -5280,7 +5283,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123034</v>
       </c>
@@ -5300,7 +5303,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125001</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125002</v>
       </c>
@@ -5340,7 +5343,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126002</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126003</v>
       </c>
@@ -5380,7 +5383,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>211001</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>211002</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>211006</v>
       </c>
@@ -5449,7 +5452,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>212101</v>
       </c>
@@ -5472,7 +5475,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>213001</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>230101</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>312104</v>
       </c>
@@ -5538,7 +5541,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>312105</v>
       </c>
@@ -5558,7 +5561,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>312108</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>312109</v>
       </c>
@@ -5598,7 +5601,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>312110</v>
       </c>
@@ -5618,7 +5621,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>312112</v>
       </c>
@@ -5638,7 +5641,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>312115</v>
       </c>
@@ -5658,7 +5661,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>312116</v>
       </c>
@@ -5678,7 +5681,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>312117</v>
       </c>
@@ -5698,7 +5701,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>312120</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>312122</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>312126</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>312131</v>
       </c>
@@ -5778,7 +5781,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>312143</v>
       </c>
@@ -5798,7 +5801,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>312152</v>
       </c>
@@ -5818,7 +5821,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>312158</v>
       </c>
@@ -5838,7 +5841,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>312159</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>312164</v>
       </c>
@@ -5878,7 +5881,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>312165</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>312168</v>
       </c>
@@ -5918,7 +5921,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>312172</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>312204</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>312205</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>312213</v>
       </c>
@@ -5998,7 +6001,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>312214</v>
       </c>
@@ -6018,7 +6021,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>312215</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>312216</v>
       </c>
@@ -6058,7 +6061,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>312217</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>312219</v>
       </c>
@@ -6098,7 +6101,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>312222</v>
       </c>
@@ -6118,7 +6121,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>312223</v>
       </c>
@@ -6138,7 +6141,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>312224</v>
       </c>
@@ -6158,7 +6161,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>312230</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>312235</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>312238</v>
       </c>
@@ -6218,7 +6221,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>312243</v>
       </c>
@@ -6238,7 +6241,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>312252</v>
       </c>
@@ -6258,7 +6261,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>312262</v>
       </c>
@@ -6278,7 +6281,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>312269</v>
       </c>
@@ -6298,7 +6301,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>312270</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>312273</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>312275</v>
       </c>
@@ -6358,7 +6361,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>312276</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>312284</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>312304</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>312309</v>
       </c>
@@ -6438,7 +6441,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>312310</v>
       </c>
@@ -6458,7 +6461,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>312316</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>312401</v>
       </c>
@@ -6504,7 +6507,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>313108</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>313110</v>
       </c>
@@ -6544,7 +6547,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>314101</v>
       </c>
@@ -6567,7 +6570,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>314205</v>
       </c>
@@ -6588,7 +6591,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>321101</v>
       </c>
@@ -6614,7 +6617,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>321102</v>
       </c>
@@ -6634,7 +6637,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>321104</v>
       </c>
@@ -6654,7 +6657,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>321201</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>321202</v>
       </c>
@@ -6700,7 +6703,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>321204</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>321206</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>321302</v>
       </c>
@@ -6760,7 +6763,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>321304</v>
       </c>
@@ -6780,7 +6783,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>411001</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>431101</v>
       </c>
@@ -6821,7 +6824,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>431102</v>
       </c>
@@ -6841,7 +6844,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>431106</v>
       </c>
@@ -6861,7 +6864,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>431108</v>
       </c>
@@ -6881,7 +6884,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>431109</v>
       </c>
@@ -6901,7 +6904,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>432015</v>
       </c>
@@ -6922,7 +6925,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>441101</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>451001</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>452101</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>452102</v>
       </c>
@@ -7020,7 +7023,7 @@
         <v>0.91100000000000003</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>452201</v>
       </c>
@@ -7046,7 +7049,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>454101</v>
       </c>
@@ -7066,7 +7069,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>454201</v>
       </c>
@@ -7086,7 +7089,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>511102</v>
       </c>
@@ -7106,7 +7109,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>511105</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>511108</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>511111</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>511114</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>511115</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>511116</v>
       </c>
@@ -7226,7 +7229,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>511117</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>511401</v>
       </c>
@@ -7266,7 +7269,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>521101</v>
       </c>
@@ -7286,7 +7289,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>521102</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>521103</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>521201</v>
       </c>
@@ -7346,7 +7349,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>521204</v>
       </c>
@@ -7366,7 +7369,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>521206</v>
       </c>
@@ -7386,7 +7389,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>521207</v>
       </c>
@@ -7406,7 +7409,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>521208</v>
       </c>
@@ -7426,7 +7429,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>521209</v>
       </c>
@@ -7446,7 +7449,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>521307</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>521904</v>
       </c>
@@ -7486,7 +7489,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>521905</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>531101</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>531103</v>
       </c>
@@ -7552,7 +7555,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>531106</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>531108</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>531201</v>
       </c>
@@ -7618,7 +7621,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>531202</v>
       </c>
@@ -7638,7 +7641,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>531301</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>531303</v>
       </c>
@@ -7684,7 +7687,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>531306</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>531401</v>
       </c>
@@ -7730,7 +7733,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>532101</v>
       </c>
@@ -7750,7 +7753,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>532102</v>
       </c>
@@ -7770,7 +7773,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>532201</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>532901</v>
       </c>
@@ -7810,7 +7813,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>533001</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>540102</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>540104</v>
       </c>
@@ -7877,7 +7880,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>540201</v>
       </c>
@@ -7903,7 +7906,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>540301</v>
       </c>
@@ -7929,7 +7932,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>540314</v>
       </c>
@@ -7949,7 +7952,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>540316</v>
       </c>
@@ -7969,7 +7972,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>552201</v>
       </c>
@@ -7995,7 +7998,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>552203</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>561101</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>561102</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>561103</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>561106</v>
       </c>
@@ -8107,7 +8110,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>561198</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>561902</v>
       </c>
@@ -8147,7 +8150,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>561903</v>
       </c>
@@ -8167,7 +8170,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>561915</v>
       </c>
@@ -8185,7 +8188,7 @@
       </c>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>562901</v>
       </c>
@@ -8206,7 +8209,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>562902</v>
       </c>
@@ -8229,7 +8232,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>611101</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>611102</v>
       </c>
@@ -8275,7 +8278,7 @@
         <v>68.900000000000006</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>613101</v>
       </c>
@@ -8301,7 +8304,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>613102</v>
       </c>
@@ -8321,7 +8324,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>613318</v>
       </c>
@@ -8339,7 +8342,7 @@
       </c>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>622902</v>
       </c>
@@ -8360,7 +8363,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>622906</v>
       </c>
@@ -8381,7 +8384,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>622907</v>
       </c>
@@ -8402,7 +8405,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>622908</v>
       </c>
@@ -8423,7 +8426,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>623101</v>
       </c>
@@ -8450,7 +8453,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>623102</v>
       </c>
@@ -8471,7 +8474,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>623103</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>631002</v>
       </c>
@@ -8515,7 +8518,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>631003</v>
       </c>
@@ -8536,7 +8539,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>631004</v>
       </c>
@@ -8557,7 +8560,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>641001</v>
       </c>
@@ -8580,7 +8583,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>641002</v>
       </c>
@@ -8603,7 +8606,7 @@
         <v>7590</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>641005</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>9230</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>641008</v>
       </c>
@@ -8645,7 +8648,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>711101</v>
       </c>
@@ -8672,7 +8675,7 @@
         <v>2240000</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>711104</v>
       </c>
@@ -8693,7 +8696,7 @@
         <v>2722000</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>711107</v>
       </c>
@@ -8714,7 +8717,7 @@
         <v>2420000</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>711109</v>
       </c>
@@ -8735,7 +8738,7 @@
         <v>1399000</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>712001</v>
       </c>
@@ -8762,7 +8765,7 @@
         <v>695000</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>713001</v>
       </c>
@@ -8788,7 +8791,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>721101</v>
       </c>
@@ -8808,7 +8811,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>721201</v>
       </c>
@@ -8828,7 +8831,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>721302</v>
       </c>
@@ -8848,7 +8851,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>722101</v>
       </c>
@@ -8866,10 +8869,10 @@
       </c>
       <c r="H293" s="3"/>
       <c r="J293">
-        <v>57.34</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57.03</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>722201</v>
       </c>
@@ -8889,10 +8892,10 @@
         <v>692</v>
       </c>
       <c r="J294">
-        <v>54.1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57.76</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>722301</v>
       </c>
@@ -8910,10 +8913,10 @@
       </c>
       <c r="H295" s="3"/>
       <c r="J295">
-        <v>29.29</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30.29</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>722398</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>722401</v>
       </c>
@@ -8954,7 +8957,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>723001</v>
       </c>
@@ -8981,7 +8984,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>723002</v>
       </c>
@@ -9002,7 +9005,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>724201</v>
       </c>
@@ -9025,7 +9028,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>724202</v>
       </c>
@@ -9048,7 +9051,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>724302</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>724304</v>
       </c>
@@ -9090,7 +9093,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>724401</v>
       </c>
@@ -9111,7 +9114,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>731101</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>59.76</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>731102</v>
       </c>
@@ -9159,7 +9162,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>731201</v>
       </c>
@@ -9186,7 +9189,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>731203</v>
       </c>
@@ -9204,10 +9207,10 @@
       </c>
       <c r="H308" s="3"/>
       <c r="J308">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>732101</v>
       </c>
@@ -9231,10 +9234,10 @@
       </c>
       <c r="H309" s="3"/>
       <c r="J309">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>732104</v>
       </c>
@@ -9255,7 +9258,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>732106</v>
       </c>
@@ -9275,10 +9278,10 @@
         <v>695</v>
       </c>
       <c r="J311">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>732201</v>
       </c>
@@ -9307,7 +9310,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>732301</v>
       </c>
@@ -9334,7 +9337,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>733101</v>
       </c>
@@ -9355,7 +9358,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>733201</v>
       </c>
@@ -9376,7 +9379,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>734001</v>
       </c>
@@ -9400,10 +9403,10 @@
       </c>
       <c r="H316" s="3"/>
       <c r="J316">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>741201</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>176.42</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>749101</v>
       </c>
@@ -9445,7 +9448,7 @@
         <v>302.82</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>749201</v>
       </c>
@@ -9466,7 +9469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>812002</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>813101</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>813209</v>
       </c>
@@ -9526,7 +9529,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>814001</v>
       </c>
@@ -9546,7 +9549,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>814007</v>
       </c>
@@ -9566,7 +9569,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>819103</v>
       </c>
@@ -9586,7 +9589,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>819201</v>
       </c>
@@ -9606,7 +9609,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>832001</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>833001</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>835001</v>
       </c>
@@ -9673,7 +9676,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>839201</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>921104</v>
       </c>
@@ -9714,7 +9717,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>921204</v>
       </c>
@@ -9734,7 +9737,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>921207</v>
       </c>
@@ -9754,7 +9757,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>922102</v>
       </c>
@@ -9774,7 +9777,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>922103</v>
       </c>
@@ -9794,7 +9797,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>922107</v>
       </c>
@@ -9814,7 +9817,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>932201</v>
       </c>
@@ -9834,7 +9837,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>932204</v>
       </c>
@@ -9854,7 +9857,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>945001</v>
       </c>
@@ -9875,7 +9878,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>946103</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>946201</v>
       </c>
@@ -9917,7 +9920,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>946203</v>
       </c>
@@ -9938,7 +9941,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>947001</v>
       </c>
@@ -9961,7 +9964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>961001</v>
       </c>
@@ -9982,7 +9985,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>961002</v>
       </c>
@@ -10003,7 +10006,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>969006</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>971102</v>
       </c>
@@ -10046,7 +10049,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>971103</v>
       </c>
@@ -10066,7 +10069,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>971901</v>
       </c>
@@ -10086,7 +10089,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>971902</v>
       </c>
@@ -10106,7 +10109,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>974001</v>
       </c>
@@ -10126,7 +10129,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>974003</v>
       </c>
@@ -10146,7 +10149,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>974004</v>
       </c>
@@ -10166,7 +10169,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>974005</v>
       </c>
@@ -10186,7 +10189,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>974009</v>
       </c>
@@ -10206,7 +10209,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>980002</v>
       </c>
@@ -10227,7 +10230,7 @@
         <v>17490</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>980003</v>
       </c>
@@ -10248,7 +10251,7 @@
         <v>38046</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>980006</v>
       </c>
@@ -10269,7 +10272,7 @@
         <v>38046</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>980008</v>
       </c>
@@ -10290,7 +10293,7 @@
         <v>44709</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>980009</v>
       </c>
@@ -10311,7 +10314,7 @@
         <v>44709</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1010101</v>
       </c>
@@ -10332,7 +10335,7 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1010201</v>
       </c>
@@ -10353,7 +10356,7 @@
         <v>264000</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1020001</v>
       </c>
@@ -10382,7 +10385,7 @@
         <v>356000</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1020002</v>
       </c>
@@ -10405,7 +10408,7 @@
         <v>356000</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1040001</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1040002</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1111130</v>
       </c>
@@ -10478,7 +10481,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1111131</v>
       </c>
@@ -10499,7 +10502,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1111132</v>
       </c>
@@ -10522,7 +10525,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1111133</v>
       </c>
@@ -10545,7 +10548,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1111135</v>
       </c>
@@ -10566,7 +10569,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1111144</v>
       </c>
@@ -10589,7 +10592,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1111148</v>
       </c>
@@ -10610,7 +10613,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1111152</v>
       </c>
@@ -10631,7 +10634,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1111153</v>
       </c>
@@ -10652,7 +10655,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1111155</v>
       </c>
@@ -10673,7 +10676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1111156</v>
       </c>
@@ -10694,7 +10697,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1111207</v>
       </c>
@@ -10717,7 +10720,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1111231</v>
       </c>
@@ -10738,7 +10741,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1111237</v>
       </c>
@@ -10759,7 +10762,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1112108</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1112113</v>
       </c>
@@ -10801,7 +10804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1112120</v>
       </c>
@@ -10822,7 +10825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1120101</v>
       </c>
@@ -10849,7 +10852,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1120301</v>
       </c>
@@ -10870,7 +10873,7 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1120398</v>
       </c>
@@ -10891,7 +10894,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1212098</v>
       </c>
@@ -10914,7 +10917,7 @@
         <v>20687</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1213001</v>
       </c>
@@ -10940,7 +10943,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1213002</v>
       </c>
@@ -10966,7 +10969,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1214101</v>
       </c>
@@ -10989,7 +10992,7 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1222001</v>
       </c>
@@ -11010,7 +11013,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1222002</v>
       </c>
@@ -11031,7 +11034,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1229101</v>
       </c>
@@ -11052,7 +11055,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1311101</v>
       </c>
@@ -11072,7 +11075,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1311103</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1311104</v>
       </c>
@@ -11112,7 +11115,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1312001</v>
       </c>
@@ -11132,7 +11135,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1312002</v>
       </c>
@@ -11152,7 +11155,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1312016</v>
       </c>
@@ -11172,7 +11175,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1312017</v>
       </c>
@@ -11192,7 +11195,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1312018</v>
       </c>
@@ -11212,7 +11215,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1312019</v>
       </c>
@@ -11232,7 +11235,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1312020</v>
       </c>
@@ -11252,7 +11255,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1312021</v>
       </c>
@@ -11272,7 +11275,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1312022</v>
       </c>
@@ -11292,7 +11295,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1312023</v>
       </c>
@@ -11312,7 +11315,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1312024</v>
       </c>
@@ -11332,7 +11335,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1312025</v>
       </c>
@@ -11352,7 +11355,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1312026</v>
       </c>
@@ -11372,7 +11375,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1312027</v>
       </c>
@@ -11392,7 +11395,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1312030</v>
       </c>
@@ -11412,7 +11415,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1313101</v>
       </c>
@@ -11433,7 +11436,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1313102</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1313202</v>
       </c>
@@ -11477,7 +11480,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1321101</v>
       </c>
@@ -11497,7 +11500,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1321105</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1329101</v>
       </c>
@@ -11537,7 +11540,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1329104</v>
       </c>
@@ -11557,7 +11560,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1329106</v>
       </c>
@@ -11577,7 +11580,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1329111</v>
       </c>
@@ -11597,7 +11600,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1329114</v>
       </c>
@@ -11617,7 +11620,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1329129</v>
       </c>
@@ -11637,7 +11640,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1330101</v>
       </c>
@@ -11660,7 +11663,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1390208</v>
       </c>
@@ -11680,7 +11683,7 @@
         <v>271459</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1390901</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>44.56</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1390902</v>
       </c>
@@ -11720,7 +11723,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1390903</v>
       </c>
@@ -11740,7 +11743,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1390906</v>
       </c>
@@ -11760,487 +11763,487 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H429" s="3"/>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H430" s="3"/>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H431" s="3"/>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H432" s="3"/>
     </row>
-    <row r="433" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H433" s="3"/>
     </row>
-    <row r="434" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H434" s="3"/>
     </row>
-    <row r="435" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H435" s="3"/>
     </row>
-    <row r="436" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H436" s="3"/>
     </row>
-    <row r="437" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H437" s="3"/>
     </row>
-    <row r="438" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H438" s="3"/>
     </row>
-    <row r="439" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H439" s="3"/>
     </row>
-    <row r="440" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H440" s="3"/>
     </row>
-    <row r="441" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H441" s="3"/>
     </row>
-    <row r="442" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H442" s="3"/>
     </row>
-    <row r="443" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H443" s="3"/>
     </row>
-    <row r="444" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H444" s="3"/>
     </row>
-    <row r="445" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H445" s="3"/>
     </row>
-    <row r="446" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H446" s="3"/>
     </row>
-    <row r="447" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H447" s="3"/>
     </row>
-    <row r="448" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H448" s="3"/>
     </row>
-    <row r="449" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H449" s="3"/>
     </row>
-    <row r="450" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H450" s="3"/>
     </row>
-    <row r="451" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H451" s="3"/>
     </row>
-    <row r="452" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H452" s="3"/>
     </row>
-    <row r="453" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H453" s="3"/>
     </row>
-    <row r="454" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H454" s="3"/>
     </row>
-    <row r="455" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H456" s="3"/>
     </row>
-    <row r="457" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H457" s="3"/>
     </row>
-    <row r="458" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H458" s="3"/>
     </row>
-    <row r="459" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H459" s="3"/>
     </row>
-    <row r="460" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H460" s="3"/>
     </row>
-    <row r="461" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H461" s="4"/>
     </row>
-    <row r="462" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H462" s="3"/>
     </row>
-    <row r="463" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H463" s="3"/>
     </row>
-    <row r="464" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H464" s="3"/>
     </row>
-    <row r="465" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H465" s="3"/>
     </row>
-    <row r="466" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H466" s="3"/>
     </row>
-    <row r="467" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H467" s="3"/>
     </row>
-    <row r="468" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H468" s="3"/>
     </row>
-    <row r="469" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H469" s="3"/>
     </row>
-    <row r="470" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H470" s="3"/>
     </row>
-    <row r="471" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H471" s="3"/>
     </row>
-    <row r="472" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H472" s="3"/>
     </row>
-    <row r="473" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H473" s="3"/>
     </row>
-    <row r="474" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H474" s="3"/>
     </row>
-    <row r="475" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H475" s="3"/>
     </row>
-    <row r="476" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H476" s="3"/>
     </row>
-    <row r="477" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H477" s="3"/>
     </row>
-    <row r="478" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H478" s="3"/>
     </row>
-    <row r="479" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H479" s="3"/>
     </row>
-    <row r="480" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H480" s="3"/>
     </row>
-    <row r="481" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H481" s="3"/>
     </row>
-    <row r="482" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H482" s="3"/>
     </row>
-    <row r="483" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H483" s="3"/>
     </row>
-    <row r="484" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H484" s="3"/>
     </row>
-    <row r="485" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H485" s="3"/>
     </row>
-    <row r="486" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H486" s="3"/>
     </row>
-    <row r="487" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H487" s="3"/>
     </row>
-    <row r="488" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H488" s="3"/>
     </row>
-    <row r="489" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H489" s="3"/>
     </row>
-    <row r="490" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H490" s="3"/>
     </row>
-    <row r="491" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H491" s="3"/>
     </row>
-    <row r="492" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H492" s="3"/>
     </row>
-    <row r="493" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H493" s="3"/>
     </row>
-    <row r="494" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H494" s="3"/>
     </row>
-    <row r="495" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H495" s="3"/>
     </row>
-    <row r="496" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H496" s="3"/>
     </row>
-    <row r="497" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H497" s="3"/>
     </row>
-    <row r="498" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H498" s="3"/>
     </row>
-    <row r="499" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H499" s="3"/>
     </row>
-    <row r="500" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H500" s="3"/>
     </row>
-    <row r="501" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H501" s="3"/>
     </row>
-    <row r="502" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H502" s="3"/>
     </row>
-    <row r="503" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H503" s="3"/>
     </row>
-    <row r="504" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H504" s="3"/>
     </row>
-    <row r="505" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H505" s="3"/>
     </row>
-    <row r="506" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H506" s="3"/>
     </row>
-    <row r="507" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H507" s="3"/>
     </row>
-    <row r="508" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H508" s="3"/>
     </row>
-    <row r="509" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H509" s="3"/>
     </row>
-    <row r="510" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H510" s="3"/>
     </row>
-    <row r="511" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H511" s="3"/>
     </row>
-    <row r="512" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H512" s="3"/>
     </row>
-    <row r="513" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H513" s="3"/>
     </row>
-    <row r="514" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H514" s="3"/>
     </row>
-    <row r="515" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H515" s="3"/>
     </row>
-    <row r="516" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H516" s="3"/>
     </row>
-    <row r="517" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H517" s="3"/>
     </row>
-    <row r="518" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H518" s="3"/>
     </row>
-    <row r="519" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H519" s="3"/>
     </row>
-    <row r="520" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H520" s="3"/>
     </row>
-    <row r="521" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H521" s="3"/>
     </row>
-    <row r="522" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H522" s="3"/>
     </row>
-    <row r="523" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H523" s="3"/>
     </row>
-    <row r="524" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H524" s="3"/>
     </row>
-    <row r="525" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H525" s="3"/>
     </row>
-    <row r="526" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H526" s="3"/>
     </row>
-    <row r="527" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H527" s="3"/>
     </row>
-    <row r="528" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H528" s="3"/>
     </row>
-    <row r="529" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H529" s="3"/>
     </row>
-    <row r="530" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H530" s="3"/>
     </row>
-    <row r="531" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H531" s="3"/>
     </row>
-    <row r="532" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H532" s="3"/>
     </row>
-    <row r="533" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H533" s="3"/>
     </row>
-    <row r="534" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H534" s="3"/>
     </row>
-    <row r="535" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H535" s="3"/>
     </row>
-    <row r="536" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H536" s="3"/>
     </row>
-    <row r="537" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H537" s="3"/>
     </row>
-    <row r="538" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H538" s="3"/>
     </row>
-    <row r="539" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H539" s="3"/>
     </row>
-    <row r="540" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H540" s="3"/>
     </row>
-    <row r="541" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H541" s="3"/>
     </row>
-    <row r="542" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H542" s="3"/>
     </row>
-    <row r="543" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H543" s="3"/>
     </row>
-    <row r="544" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H544" s="3"/>
     </row>
-    <row r="545" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H545" s="3"/>
     </row>
-    <row r="546" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H546" s="3"/>
     </row>
-    <row r="547" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H547" s="3"/>
     </row>
-    <row r="548" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H548" s="3"/>
     </row>
-    <row r="549" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H549" s="3"/>
     </row>
-    <row r="550" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H550" s="3"/>
     </row>
-    <row r="551" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H551" s="3"/>
     </row>
-    <row r="552" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H552" s="3"/>
     </row>
-    <row r="553" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H553" s="3"/>
     </row>
-    <row r="554" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H554" s="3"/>
     </row>
-    <row r="555" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H555" s="3"/>
     </row>
-    <row r="556" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H556" s="3"/>
     </row>
-    <row r="557" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H557" s="3"/>
     </row>
-    <row r="558" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H558" s="3"/>
     </row>
-    <row r="559" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H559" s="3"/>
     </row>
-    <row r="560" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H560" s="3"/>
     </row>
-    <row r="561" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H561" s="3"/>
     </row>
-    <row r="562" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H562" s="3"/>
     </row>
-    <row r="563" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H563" s="3"/>
     </row>
-    <row r="564" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H564" s="3"/>
     </row>
-    <row r="565" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H565" s="3"/>
     </row>
-    <row r="566" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H566" s="3"/>
     </row>
-    <row r="567" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H567" s="3"/>
     </row>
-    <row r="568" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H568" s="3"/>
     </row>
-    <row r="569" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H569" s="3"/>
     </row>
-    <row r="570" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H570" s="3"/>
     </row>
-    <row r="571" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H571" s="3"/>
     </row>
-    <row r="572" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H572" s="3"/>
     </row>
-    <row r="573" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H573" s="3"/>
     </row>
-    <row r="574" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H574" s="3"/>
     </row>
-    <row r="575" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H575" s="3"/>
     </row>
-    <row r="576" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H576" s="3"/>
     </row>
-    <row r="577" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H577" s="3"/>
     </row>
-    <row r="578" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H578" s="3"/>
     </row>
-    <row r="579" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H579" s="3"/>
     </row>
-    <row r="580" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H580" s="3"/>
     </row>
-    <row r="581" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H581" s="3"/>
     </row>
-    <row r="582" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H582" s="3"/>
     </row>
-    <row r="583" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H583" s="3"/>
     </row>
-    <row r="584" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H584" s="3"/>
     </row>
-    <row r="585" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H585" s="3"/>
     </row>
-    <row r="586" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H586" s="4"/>
     </row>
-    <row r="587" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H587" s="3"/>
     </row>
-    <row r="588" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H588" s="3"/>
     </row>
-    <row r="589" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H589" s="2"/>
     </row>
   </sheetData>
@@ -12258,18 +12261,24 @@
     <hyperlink ref="H7" r:id="rId11" xr:uid="{D4CEFA96-437F-4328-A7E1-66AB89A15B54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;09&amp;B&amp;K0000FFKurum İçi Sınırsız Kullanım&amp;K000000 / &amp;KC00000Kişisel Veri</oddHeader>
+    <evenHeader>&amp;L&amp;"Calibri,Regular"&amp;09&amp;B&amp;K0000FFKurum İçi Sınırsız Kullanım&amp;K000000 / &amp;KC00000Kişisel Veri</evenHeader>
+    <firstHeader>&amp;L&amp;"Calibri,Regular"&amp;09&amp;B&amp;K0000FFKurum İçi Sınırsız Kullanım&amp;K000000 / &amp;KC00000Kişisel Veri</firstHeader>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <sisl xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="bab714a6-9187-42f5-a4dd-542e816fcaf4" origin="userSelected">
   <element uid="id_classification_generalbusiness" value=""/>
-  <element uid="f2eba04f-07ec-4723-bc0f-b207a306c994" value=""/>
+  <element uid="6748bc31-4136-421c-87e3-7c80c17513ad" value=""/>
 </sisl>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{086008D9-57AA-4A99-BDFE-EF608D766F7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E421F84-11C8-40A1-8EE4-C9BF307561CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
